--- a/data/data-wrangling-intermediate/04.1b_edited8_NA-height-of-non-0-Code-corrected.xlsx
+++ b/data/data-wrangling-intermediate/04.1b_edited8_NA-height-of-non-0-Code-corrected.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C4AA3027-665B-49F6-93F5-38878CDC1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{14B8051D-C2BF-4678-B447-1AF04F01EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D212F4-C901-4433-9BB7-2A5ED47C77E1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04.1a_output8_NA-height-of-non-" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9DDDCCDB-8418-460A-9B19-77FF8EC04A43}</author>
+    <author>tc={1E23B711-D04C-43DF-B0E9-D3C21DAA5C04}</author>
+    <author>tc={78F1EAE5-F0CD-4172-A926-75E7B2A54B7A}</author>
+    <author>tc={AC567870-31B0-4246-AD36-F75C4E35AC2C}</author>
+    <author>tc={02E5B534-F54B-41EE-9FFF-3AD3E444B455}</author>
+    <author>tc={556BE52D-A380-48E2-A83D-8AC41A7380E9}</author>
+    <author>tc={4B4A83D5-A448-42C7-9927-D1CB0C55E3D1}</author>
+    <author>tc={794AE174-ABBF-4787-A6C3-5B0F960520F1}</author>
+    <author>tc={AE287FBE-7DAC-4F0E-B935-6D34BBE9F1C8}</author>
+    <author>tc={AF43012B-B68D-42EF-BAAA-CE370677B26D}</author>
+    <author>tc={72A821A9-9EB2-439E-972F-C39F5B27829F}</author>
+    <author>tc={F32C4B90-BC3D-4B65-80FF-D447F979A33D}</author>
+    <author>tc={003574FB-7776-48FB-95DC-A37736C4BB8B}</author>
+    <author>tc={910881E5-8D2D-42BC-86F7-4F69FD530981}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q28" authorId="0" shapeId="0" xr:uid="{9DDDCCDB-8418-460A-9B19-77FF8EC04A43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No height recorded for Plots 13 &amp; 14 in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q41" authorId="1" shapeId="0" xr:uid="{1E23B711-D04C-43DF-B0E9-D3C21DAA5C04}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="2" shapeId="0" xr:uid="{78F1EAE5-F0CD-4172-A926-75E7B2A54B7A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q43" authorId="3" shapeId="0" xr:uid="{AC567870-31B0-4246-AD36-F75C4E35AC2C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q44" authorId="4" shapeId="0" xr:uid="{02E5B534-F54B-41EE-9FFF-3AD3E444B455}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Plot 207 is missing from scanned data sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q45" authorId="5" shapeId="0" xr:uid="{556BE52D-A380-48E2-A83D-8AC41A7380E9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Plot 207 is missing from scanned data sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q46" authorId="6" shapeId="0" xr:uid="{4B4A83D5-A448-42C7-9927-D1CB0C55E3D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q47" authorId="7" shapeId="0" xr:uid="{794AE174-ABBF-4787-A6C3-5B0F960520F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q48" authorId="8" shapeId="0" xr:uid="{AE287FBE-7DAC-4F0E-B935-6D34BBE9F1C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q49" authorId="9" shapeId="0" xr:uid="{AF43012B-B68D-42EF-BAAA-CE370677B26D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q50" authorId="10" shapeId="0" xr:uid="{72A821A9-9EB2-439E-972F-C39F5B27829F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q51" authorId="11" shapeId="0" xr:uid="{F32C4B90-BC3D-4B65-80FF-D447F979A33D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q52" authorId="12" shapeId="0" xr:uid="{003574FB-7776-48FB-95DC-A37736C4BB8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet</t>
+      </text>
+    </comment>
+    <comment ref="Q53" authorId="13" shapeId="0" xr:uid="{910881E5-8D2D-42BC-86F7-4F69FD530981}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Height not recorded in scanned sheet for Plot 222</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="145">
   <si>
     <t>Region</t>
   </si>
@@ -97,6 +232,12 @@
     <t>CRC</t>
   </si>
   <si>
+    <t>2018-10-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2019-03-22T00:00:00Z</t>
+  </si>
+  <si>
     <t>Mulch</t>
   </si>
   <si>
@@ -115,9 +256,6 @@
     <t>Forb</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -130,6 +268,9 @@
     <t>Current</t>
   </si>
   <si>
+    <t>2019-04-05T00:00:00Z</t>
+  </si>
+  <si>
     <t>SATR12</t>
   </si>
   <si>
@@ -226,12 +367,21 @@
     <t>Salt_Desert</t>
   </si>
   <si>
+    <t>2018-10-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2019-04-19T00:00:00Z</t>
+  </si>
+  <si>
     <t>ELEL5</t>
   </si>
   <si>
     <t>Elymus elymoides</t>
   </si>
   <si>
+    <t>2019-04-25T00:00:00Z</t>
+  </si>
+  <si>
     <t>S-UNGR4</t>
   </si>
   <si>
@@ -241,10 +391,13 @@
     <t>Seeded unknown grass 4, CRC</t>
   </si>
   <si>
-    <t>BRTE</t>
-  </si>
-  <si>
-    <t>Bromus tectorum</t>
+    <t>2019-05-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2019-05-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2019-05-28T00:00:00Z</t>
   </si>
   <si>
     <t>Sonoran SE</t>
@@ -253,6 +406,12 @@
     <t>SRER</t>
   </si>
   <si>
+    <t>2019-08-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-03-10T00:00:00Z</t>
+  </si>
+  <si>
     <t>BOUSPP</t>
   </si>
   <si>
@@ -274,6 +433,12 @@
     <t>Mesquite</t>
   </si>
   <si>
+    <t>2020-08-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-11-14T00:00:00Z</t>
+  </si>
+  <si>
     <t>Warm</t>
   </si>
   <si>
@@ -289,6 +454,9 @@
     <t>Shrub</t>
   </si>
   <si>
+    <t>2020-12-12T00:00:00Z</t>
+  </si>
+  <si>
     <t>Unkgrass</t>
   </si>
   <si>
@@ -301,6 +469,9 @@
     <t>Medium</t>
   </si>
   <si>
+    <t>2021-03-20T00:00:00Z</t>
+  </si>
+  <si>
     <t>ATCA</t>
   </si>
   <si>
@@ -316,6 +487,9 @@
     <t>Baileya multiradiata</t>
   </si>
   <si>
+    <t>2021-10-10T00:00:00Z</t>
+  </si>
+  <si>
     <t>UNK Fuzzy astr</t>
   </si>
   <si>
@@ -331,42 +505,21 @@
     <t>Recruit</t>
   </si>
   <si>
-    <t>Mojave</t>
-  </si>
-  <si>
-    <t>AVRCD</t>
-  </si>
-  <si>
-    <t>AMIN3</t>
-  </si>
-  <si>
-    <t>AMMEI2</t>
-  </si>
-  <si>
-    <t>Amsinckia menziesii</t>
-  </si>
-  <si>
-    <t>BRNI</t>
-  </si>
-  <si>
-    <t>Brassica nigra</t>
+    <t>Sonoran Central</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>2019-12-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-03-24T00:00:00Z</t>
   </si>
   <si>
     <t>Cool</t>
   </si>
   <si>
-    <t>SIIR</t>
-  </si>
-  <si>
-    <t>Sisymbrium irio</t>
-  </si>
-  <si>
-    <t>Sonoran Central</t>
-  </si>
-  <si>
-    <t>Pleasant</t>
-  </si>
-  <si>
     <t>ERCI6</t>
   </si>
   <si>
@@ -398,13 +551,52 @@
   </si>
   <si>
     <t>Pectocarya</t>
+  </si>
+  <si>
+    <t>CRPO5</t>
+  </si>
+  <si>
+    <t>Croton pottsii</t>
+  </si>
+  <si>
+    <t>AMPA</t>
+  </si>
+  <si>
+    <t>Amaranthus palmeri</t>
+  </si>
+  <si>
+    <t>PAHI5</t>
+  </si>
+  <si>
+    <t>Panicum hirticaule</t>
+  </si>
+  <si>
+    <t>POPI3</t>
+  </si>
+  <si>
+    <t>Portulaca pilosa</t>
+  </si>
+  <si>
+    <t>TILA2</t>
+  </si>
+  <si>
+    <t>Tidestromia lanuginosa</t>
+  </si>
+  <si>
+    <t>Unksporo</t>
+  </si>
+  <si>
+    <t>Unksporo.Mesquite</t>
+  </si>
+  <si>
+    <t>Unknown grass; Sporobolus and Eragrostis, Mesquite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,8 +731,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +918,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -887,10 +1079,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,6 +1138,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0032F54E-0DE1-479A-9991-9942B1D75FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="11039475"/>
+          <a:ext cx="3634740" cy="1011555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Corrected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Height and Count (if applicable) columns by looking back at scans of hard-copy raw data sheets. NAs changed to blank cells.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = scanned data sheet not available</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{B596134E-88DE-44F8-AD54-D2B4A242497E}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,15 +1557,66 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q28" dT="2024-04-30T20:52:29.60" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{9DDDCCDB-8418-460A-9B19-77FF8EC04A43}">
+    <text>No height recorded for Plots 13 &amp; 14 in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q41" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{1E23B711-D04C-43DF-B0E9-D3C21DAA5C04}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q42" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{78F1EAE5-F0CD-4172-A926-75E7B2A54B7A}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q43" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{AC567870-31B0-4246-AD36-F75C4E35AC2C}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q44" dT="2024-04-30T20:58:13.33" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{02E5B534-F54B-41EE-9FFF-3AD3E444B455}">
+    <text>Plot 207 is missing from scanned data sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q45" dT="2024-04-30T20:58:13.33" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{556BE52D-A380-48E2-A83D-8AC41A7380E9}">
+    <text>Plot 207 is missing from scanned data sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q46" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{4B4A83D5-A448-42C7-9927-D1CB0C55E3D1}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q47" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{794AE174-ABBF-4787-A6C3-5B0F960520F1}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q48" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{AE287FBE-7DAC-4F0E-B935-6D34BBE9F1C8}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q49" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{AF43012B-B68D-42EF-BAAA-CE370677B26D}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q50" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{72A821A9-9EB2-439E-972F-C39F5B27829F}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q51" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{F32C4B90-BC3D-4B65-80FF-D447F979A33D}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q52" dT="2024-04-30T20:54:10.79" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{003574FB-7776-48FB-95DC-A37736C4BB8B}">
+    <text>Height not recorded in scanned sheet</text>
+  </threadedComment>
+  <threadedComment ref="Q53" dT="2024-04-30T21:00:51.82" personId="{B596134E-88DE-44F8-AD54-D2B4A242497E}" id="{910881E5-8D2D-42BC-86F7-4F69FD530981}">
+    <text>Height not recorded in scanned sheet for Plot 222</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="H8:Q9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1346,17 +1690,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43546</v>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E2">
         <v>164</v>
@@ -1365,69 +1709,66 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>3964</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
       <c r="R2">
         <v>9950</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43560</v>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E3">
         <v>165</v>
@@ -1436,69 +1777,66 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>4051</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="R3">
         <v>10251</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
         <v>21</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43560</v>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E4">
         <v>165</v>
@@ -1507,69 +1845,66 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>4051</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4">
         <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>20</v>
       </c>
       <c r="R4">
         <v>10252</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43560</v>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E5">
         <v>165</v>
@@ -1578,69 +1913,66 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>4051</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" s="2">
-        <v>30</v>
-      </c>
       <c r="R5">
         <v>10253</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43560</v>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E6">
         <v>165</v>
@@ -1649,69 +1981,66 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>4051</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
-        <v>50</v>
-      </c>
       <c r="R6">
         <v>10254</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43560</v>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E7">
         <v>165</v>
@@ -1720,69 +2049,66 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7">
         <v>4051</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
       </c>
       <c r="R7">
         <v>10255</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43560</v>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E8">
         <v>165</v>
@@ -1791,69 +2117,66 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>4051</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
-        <v>31</v>
-      </c>
       <c r="R8">
         <v>10256</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43560</v>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E9">
         <v>165</v>
@@ -1862,69 +2185,66 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>4051</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>31</v>
-      </c>
       <c r="R9">
         <v>10257</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43560</v>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E10">
         <v>165</v>
@@ -1933,69 +2253,66 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10">
         <v>4052</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10">
         <v>6</v>
       </c>
-      <c r="Q10" s="2">
-        <v>20</v>
-      </c>
       <c r="R10">
         <v>10258</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43560</v>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E11">
         <v>165</v>
@@ -2004,69 +2321,66 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11">
         <v>4053</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
       <c r="R11">
         <v>10259</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
         <v>21</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43560</v>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E12">
         <v>165</v>
@@ -2075,69 +2389,66 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12">
         <v>4054</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
-        <v>31</v>
-      </c>
       <c r="R12">
         <v>10260</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43560</v>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E13">
         <v>165</v>
@@ -2146,69 +2457,66 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13">
         <v>4054</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13">
         <v>3</v>
       </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
       <c r="R13">
         <v>10261</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43560</v>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E14">
         <v>165</v>
@@ -2217,69 +2525,66 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14">
         <v>4054</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P14">
         <v>5</v>
       </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
       <c r="R14">
         <v>10262</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43560</v>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E15">
         <v>165</v>
@@ -2288,69 +2593,66 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15">
         <v>4054</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
       <c r="R15">
         <v>10263</v>
       </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V15" t="s">
         <v>21</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43560</v>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E16">
         <v>165</v>
@@ -2359,69 +2661,66 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I16">
         <v>4055</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
-      <c r="Q16" t="s">
-        <v>31</v>
-      </c>
       <c r="R16">
         <v>10264</v>
       </c>
       <c r="S16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
         <v>21</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43560</v>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E17">
         <v>165</v>
@@ -2430,69 +2729,66 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17">
         <v>4055</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
-        <v>31</v>
-      </c>
       <c r="R17">
         <v>10265</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43560</v>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E18">
         <v>165</v>
@@ -2501,69 +2797,66 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18">
         <v>4055</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18">
         <v>7</v>
       </c>
-      <c r="Q18" t="s">
-        <v>31</v>
-      </c>
       <c r="R18">
         <v>10266</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43560</v>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E19">
         <v>165</v>
@@ -2572,69 +2865,66 @@
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I19">
         <v>4055</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
-      <c r="Q19" t="s">
-        <v>31</v>
-      </c>
       <c r="R19">
         <v>10267</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43560</v>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E20">
         <v>165</v>
@@ -2643,69 +2933,66 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20">
         <v>4056</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P20">
         <v>3</v>
       </c>
-      <c r="Q20" t="s">
-        <v>31</v>
-      </c>
       <c r="R20">
         <v>10268</v>
       </c>
       <c r="S20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
         <v>21</v>
       </c>
       <c r="W20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43560</v>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E21">
         <v>165</v>
@@ -2714,69 +3001,66 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I21">
         <v>4056</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" t="s">
-        <v>31</v>
-      </c>
       <c r="R21">
         <v>10269</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43560</v>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E22">
         <v>165</v>
@@ -2785,69 +3069,66 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>4056</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
         <v>12</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>31</v>
-      </c>
       <c r="R22">
         <v>10270</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43560</v>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E23">
         <v>165</v>
@@ -2856,69 +3137,66 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>4056</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
       <c r="R23">
         <v>10271</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43560</v>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E24">
         <v>165</v>
@@ -2927,69 +3205,66 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>4056</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P24">
         <v>8</v>
       </c>
-      <c r="Q24" t="s">
-        <v>31</v>
-      </c>
       <c r="R24">
         <v>10272</v>
       </c>
       <c r="S24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43560</v>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E25">
         <v>165</v>
@@ -2998,69 +3273,66 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>4056</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P25">
         <v>15</v>
       </c>
-      <c r="Q25" t="s">
-        <v>31</v>
-      </c>
       <c r="R25">
         <v>10273</v>
       </c>
       <c r="S25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V25" t="s">
         <v>21</v>
       </c>
       <c r="W25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1">
-        <v>43404</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43574</v>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E26">
         <v>174</v>
@@ -3069,69 +3341,66 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I26">
         <v>4071</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
       <c r="R26">
         <v>10331</v>
       </c>
       <c r="S26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43404</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43574</v>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E27">
         <v>174</v>
@@ -3140,55 +3409,52 @@
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I27">
         <v>4091</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
-      <c r="Q27" t="s">
-        <v>31</v>
-      </c>
       <c r="R27">
         <v>10413</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -3198,11 +3464,11 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43580</v>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
       </c>
       <c r="E28">
         <v>166</v>
@@ -3211,55 +3477,52 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I28">
         <v>4115</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M28" t="s">
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
-      <c r="Q28" t="s">
-        <v>31</v>
-      </c>
       <c r="R28">
         <v>10509</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3269,11 +3532,11 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43580</v>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
       </c>
       <c r="E29">
         <v>166</v>
@@ -3282,55 +3545,52 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I29">
         <v>4115</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P29">
         <v>2</v>
       </c>
-      <c r="Q29" t="s">
-        <v>31</v>
-      </c>
       <c r="R29">
         <v>10510</v>
       </c>
       <c r="S29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3340,11 +3600,11 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43580</v>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
       </c>
       <c r="E30">
         <v>166</v>
@@ -3353,55 +3613,52 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I30">
         <v>4115</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M30" t="s">
         <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P30">
         <v>8</v>
       </c>
-      <c r="Q30" t="s">
-        <v>31</v>
-      </c>
       <c r="R30">
         <v>10511</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3411,11 +3668,11 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D31" s="1">
-        <v>43580</v>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
       </c>
       <c r="E31">
         <v>166</v>
@@ -3424,55 +3681,52 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I31">
         <v>4116</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
         <v>12</v>
       </c>
       <c r="N31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P31">
         <v>5</v>
       </c>
-      <c r="Q31" t="s">
-        <v>31</v>
-      </c>
       <c r="R31">
         <v>10512</v>
       </c>
       <c r="S31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3482,11 +3736,11 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43580</v>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
       </c>
       <c r="E32">
         <v>166</v>
@@ -3495,55 +3749,52 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I32">
         <v>4116</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
         <v>12</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" t="s">
-        <v>31</v>
-      </c>
       <c r="R32">
         <v>10513</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3553,11 +3804,11 @@
       <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43580</v>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
       </c>
       <c r="E33">
         <v>166</v>
@@ -3566,55 +3817,52 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I33">
         <v>4116</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
         <v>12</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" t="s">
-        <v>31</v>
-      </c>
       <c r="R33">
         <v>10514</v>
       </c>
       <c r="S33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3624,11 +3872,11 @@
       <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43580</v>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
       </c>
       <c r="E34">
         <v>166</v>
@@ -3637,69 +3885,66 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I34">
         <v>4116</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
         <v>12</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P34">
         <v>2</v>
       </c>
-      <c r="Q34" t="s">
-        <v>31</v>
-      </c>
       <c r="R34">
         <v>10515</v>
       </c>
       <c r="S34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="1">
-        <v>43404</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43594</v>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E35">
         <v>175</v>
@@ -3708,478 +3953,457 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I35">
         <v>4181</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M35" t="s">
         <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" t="s">
-        <v>31</v>
-      </c>
       <c r="R35">
         <v>10819</v>
       </c>
       <c r="S35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>167</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36">
+        <v>4258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>11251</v>
+      </c>
+      <c r="S36" t="s">
         <v>33</v>
       </c>
-      <c r="U35" t="s">
-        <v>33</v>
-      </c>
-      <c r="V35" t="s">
-        <v>34</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="W36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1">
-        <v>43404</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43594</v>
-      </c>
-      <c r="E36">
-        <v>175</v>
-      </c>
-      <c r="F36">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36">
-        <v>4187</v>
-      </c>
-      <c r="J36" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" t="s">
-        <v>74</v>
-      </c>
-      <c r="M36" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" t="s">
-        <v>39</v>
-      </c>
-      <c r="O36" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36">
-        <v>10842</v>
-      </c>
-      <c r="S36" t="s">
-        <v>40</v>
-      </c>
-      <c r="T36" t="s">
-        <v>41</v>
-      </c>
-      <c r="U36" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43602</v>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E37">
         <v>167</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I37">
-        <v>4258</v>
+        <v>4261</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M37" t="s">
         <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>11251</v>
+        <v>11265</v>
       </c>
       <c r="S37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43602</v>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E38">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>4261</v>
+        <v>4291</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>11401</v>
+      </c>
+      <c r="S38" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" t="s">
+        <v>35</v>
+      </c>
+      <c r="W38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <v>152</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39">
+        <v>4915</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39">
         <v>3</v>
       </c>
-      <c r="Q38" t="s">
-        <v>31</v>
-      </c>
-      <c r="R38">
-        <v>11265</v>
-      </c>
-      <c r="S38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" t="s">
-        <v>33</v>
-      </c>
-      <c r="U38" t="s">
-        <v>33</v>
-      </c>
-      <c r="V38" t="s">
-        <v>34</v>
-      </c>
-      <c r="W38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43390</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43602</v>
-      </c>
-      <c r="E39">
-        <v>167</v>
-      </c>
-      <c r="F39">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39">
-        <v>4268</v>
-      </c>
-      <c r="J39" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="R39">
+        <v>13602</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>88</v>
+      </c>
+      <c r="U39" t="s">
+        <v>89</v>
+      </c>
+      <c r="V39" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" t="s">
         <v>61</v>
       </c>
-      <c r="M39" t="s">
-        <v>38</v>
-      </c>
-      <c r="N39" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39">
-        <v>11297</v>
-      </c>
-      <c r="S39" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" t="s">
-        <v>41</v>
-      </c>
-      <c r="V39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1">
-        <v>43404</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43613</v>
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E40">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I40">
-        <v>4291</v>
+        <v>6024</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s">
         <v>12</v>
       </c>
       <c r="N40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
-      <c r="Q40" t="s">
-        <v>31</v>
-      </c>
       <c r="R40">
-        <v>11401</v>
+        <v>16603</v>
       </c>
       <c r="S40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W40" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43686</v>
-      </c>
-      <c r="D41" s="1">
-        <v>44265</v>
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
       </c>
       <c r="E41">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I41">
-        <v>4915</v>
+        <v>6067</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s">
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P41">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>13602</v>
+        <v>16651</v>
       </c>
       <c r="S41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T41" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W41" t="s">
         <v>59</v>
@@ -4187,1070 +4411,1163 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D42" s="1">
-        <v>44149</v>
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I42">
-        <v>6024</v>
+        <v>6075</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s">
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>16659</v>
+      </c>
+      <c r="S42" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" t="s">
         <v>88</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42">
-        <v>16603</v>
-      </c>
-      <c r="S42" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" t="s">
-        <v>33</v>
-      </c>
       <c r="U42" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="V42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D43" s="1">
-        <v>44177</v>
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I43">
-        <v>6067</v>
+        <v>6077</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
         <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P43">
-        <v>8</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="R43">
-        <v>16651</v>
+        <v>16661</v>
       </c>
       <c r="S43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U43" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W43" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D44" s="1">
-        <v>44177</v>
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I44">
-        <v>6075</v>
+        <v>6096</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s">
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O44" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P44">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>16659</v>
+        <v>16680</v>
       </c>
       <c r="S44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="T44" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="U44" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="V44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44177</v>
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I45">
-        <v>6077</v>
+        <v>6096</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M45" t="s">
         <v>12</v>
       </c>
       <c r="N45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P45">
-        <v>6</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>16661</v>
+        <v>16681</v>
       </c>
       <c r="S45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="U45" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="V45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W45" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D46" s="1">
-        <v>44275</v>
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I46">
-        <v>6096</v>
+        <v>6141</v>
       </c>
       <c r="J46" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="M46" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="P46">
         <v>1</v>
       </c>
-      <c r="Q46" t="s">
-        <v>31</v>
-      </c>
       <c r="R46">
-        <v>16680</v>
+        <v>16788</v>
       </c>
       <c r="S46" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T46" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="U46" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="V46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="W46" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44275</v>
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F47">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="I47">
-        <v>6096</v>
+        <v>6330</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="M47" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
-      <c r="Q47" t="s">
-        <v>31</v>
-      </c>
       <c r="R47">
-        <v>16681</v>
+        <v>17923</v>
       </c>
       <c r="S47" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="T47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="U47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="V47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="W47" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44048</v>
-      </c>
-      <c r="D48" s="1">
-        <v>44479</v>
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="F48">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I48">
-        <v>6141</v>
+        <v>6330</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K48" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="L48" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="M48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O48" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" t="s">
-        <v>31</v>
-      </c>
       <c r="R48">
-        <v>16788</v>
+        <v>17924</v>
       </c>
       <c r="S48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T48" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="U48" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="V48" t="s">
         <v>21</v>
       </c>
       <c r="W48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44578</v>
-      </c>
-      <c r="D49" s="1">
-        <v>44664</v>
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
       </c>
       <c r="E49">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="I49">
-        <v>6286</v>
+        <v>6330</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s">
         <v>12</v>
       </c>
       <c r="N49" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O49" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>17737</v>
+        <v>17925</v>
       </c>
       <c r="S49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T49" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U49" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W49" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="1">
-        <v>44578</v>
-      </c>
-      <c r="D50" s="1">
-        <v>44664</v>
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
       </c>
       <c r="E50">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="I50">
-        <v>6286</v>
+        <v>6330</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="L50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="M50" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O50" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
       </c>
       <c r="R50">
-        <v>17742</v>
+        <v>17926</v>
       </c>
       <c r="S50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T50" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="U50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="V50" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="W50" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1">
-        <v>44578</v>
-      </c>
-      <c r="D51" s="1">
-        <v>44664</v>
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
       </c>
       <c r="E51">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <v>6330</v>
+      </c>
+      <c r="J51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>17927</v>
+      </c>
+      <c r="S51" t="s">
+        <v>42</v>
+      </c>
+      <c r="T51" t="s">
+        <v>88</v>
+      </c>
+      <c r="U51" t="s">
+        <v>89</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51" t="s">
         <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51">
-        <v>6304</v>
-      </c>
-      <c r="J51" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" t="s">
-        <v>111</v>
-      </c>
-      <c r="L51" t="s">
-        <v>112</v>
-      </c>
-      <c r="M51" t="s">
-        <v>38</v>
-      </c>
-      <c r="N51" t="s">
-        <v>39</v>
-      </c>
-      <c r="O51" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>31</v>
-      </c>
-      <c r="R51">
-        <v>17822</v>
-      </c>
-      <c r="S51" t="s">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s">
-        <v>41</v>
-      </c>
-      <c r="U51" t="s">
-        <v>41</v>
-      </c>
-      <c r="V51" t="s">
-        <v>21</v>
-      </c>
-      <c r="W51" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="1">
-        <v>43818</v>
-      </c>
-      <c r="D52" s="1">
-        <v>45009</v>
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
       </c>
       <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>6143</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52">
         <v>125</v>
       </c>
-      <c r="F52">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I52">
-        <v>6330</v>
-      </c>
-      <c r="J52" t="s">
-        <v>115</v>
-      </c>
-      <c r="K52" t="s">
-        <v>115</v>
-      </c>
-      <c r="L52" t="s">
-        <v>116</v>
-      </c>
-      <c r="M52" t="s">
-        <v>38</v>
-      </c>
-      <c r="N52" t="s">
-        <v>39</v>
-      </c>
-      <c r="O52" t="s">
-        <v>30</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>31</v>
-      </c>
       <c r="R52">
-        <v>17923</v>
+        <v>16798</v>
       </c>
       <c r="S52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T52" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="U52" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="V52" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="W52" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="1">
-        <v>43818</v>
-      </c>
-      <c r="D53" s="1">
-        <v>45009</v>
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
       </c>
       <c r="E53">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I53">
-        <v>6330</v>
+        <v>6147</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="K53" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O53" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="R53">
-        <v>17924</v>
+        <v>16810</v>
       </c>
       <c r="S53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T53" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="U53" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="V53" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="W53" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="1">
-        <v>43818</v>
-      </c>
-      <c r="D54" s="1">
-        <v>45009</v>
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
       </c>
       <c r="E54">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I54">
-        <v>6330</v>
+        <v>6147</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s">
         <v>12</v>
       </c>
       <c r="N54" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P54">
-        <v>2</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="R54">
-        <v>17925</v>
+        <v>16811</v>
       </c>
       <c r="S54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T54" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U54" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W54" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="1">
-        <v>43818</v>
-      </c>
-      <c r="D55" s="1">
-        <v>45009</v>
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
       </c>
       <c r="E55">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I55">
-        <v>6330</v>
+        <v>6147</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s">
         <v>12</v>
       </c>
       <c r="N55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O55" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P55">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="R55">
-        <v>17926</v>
+        <v>16812</v>
       </c>
       <c r="S55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T55" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U55" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="1">
-        <v>43818</v>
-      </c>
-      <c r="D56" s="1">
-        <v>45009</v>
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
       </c>
       <c r="E56">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I56">
-        <v>6330</v>
+        <v>6147</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K56" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s">
         <v>12</v>
       </c>
       <c r="N56" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="R56">
-        <v>17927</v>
+        <v>16813</v>
       </c>
       <c r="S56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T56" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>222</v>
+      </c>
+      <c r="G57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57">
+        <v>6147</v>
+      </c>
+      <c r="J57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s">
+        <v>140</v>
+      </c>
+      <c r="L57" t="s">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57">
+        <v>117</v>
+      </c>
+      <c r="R57">
+        <v>16814</v>
+      </c>
+      <c r="S57" t="s">
+        <v>42</v>
+      </c>
+      <c r="T57" t="s">
+        <v>88</v>
+      </c>
+      <c r="U57" t="s">
+        <v>89</v>
+      </c>
+      <c r="V57" t="s">
         <v>35</v>
+      </c>
+      <c r="W57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>222</v>
+      </c>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58">
+        <v>6147</v>
+      </c>
+      <c r="J58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" t="s">
+        <v>143</v>
+      </c>
+      <c r="L58" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O58" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <v>130</v>
+      </c>
+      <c r="R58">
+        <v>16815</v>
+      </c>
+      <c r="S58" t="s">
+        <v>42</v>
+      </c>
+      <c r="T58" t="s">
+        <v>114</v>
+      </c>
+      <c r="U58" t="s">
+        <v>115</v>
+      </c>
+      <c r="V58" t="s">
+        <v>21</v>
+      </c>
+      <c r="W58" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>